--- a/Python Project/ExData/holdings.xlsx
+++ b/Python Project/ExData/holdings.xlsx
@@ -900,6 +900,14 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7ccc6108-b996-45fe-927f-771872a457a9">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <MediaLengthInSeconds xmlns="7ccc6108-b996-45fe-927f-771872a457a9" xsi:nil="true"/>
+    <SharedWithUsers xmlns="87dab53c-1e0f-4750-88f6-3a4f5278ee15">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
   </documentManagement>
 </p:properties>
 </file>
